--- a/BuildTool/Config/Test/IntTest.xlsx
+++ b/BuildTool/Config/Test/IntTest.xlsx
@@ -543,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -714,6 +714,11 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/BuildTool/Config/Test/IntTest.xlsx
+++ b/BuildTool/Config/Test/IntTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>sep=和&amp;default=5和6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ints[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +550,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -611,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
